--- a/NMDS/ITS2/ITS2_order_reads.xlsx
+++ b/NMDS/ITS2/ITS2_order_reads.xlsx
@@ -12,171 +12,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
   <si>
-    <t xml:space="preserve">Acrospermales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricomycetes_ord_Incertae_sedis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agaricostilbales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auriculariales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botryosphaeriales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capnodiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capnodiales  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaetothyriales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diaporthales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dothideales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dothideomycetes_ord_Incertae_sedis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erysiphales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eurotiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glomerellales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helotiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holtermanniales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypocreales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnaporthales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanosporales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microascales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortierellales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mucorales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmecridiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mytilinidiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olpidiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onygenales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbiliales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostropales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pezizales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phomatosporales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleosporales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleurotheciales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyxidiophorales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhizophlyctidales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saccharomycetales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saccharomycetales  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savoryellales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebacinales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sordariales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spizellomycetales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporidiobolales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thelebolales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thelephorales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trechisporales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tremellales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichosporonales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubeufiales </t>
+    <t xml:space="preserve">Acrospermales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricomycetes_ord_Incertae_sedis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricostilbales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auriculariales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botryosphaeriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capnodiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaetothyriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaporthales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothideales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothideomycetes_ord_Incertae_sedis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erysiphales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurotiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glomerellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helotiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holtermanniales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypocreales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnaporthales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanosporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microascales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortierellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucorales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrmecridiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mytilinidiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olpidiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onygenales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbiliales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostropales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pezizales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phomatosporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleosporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleurotheciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyxidiophorales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizophlyctidales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharomycetales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savoryellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebacinales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sordariales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spizellomycetales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporidiobolales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thelebolales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thelephorales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trechisporales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tremellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichosporonales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubeufiales</t>
   </si>
   <si>
     <t xml:space="preserve">unidentified</t>
   </si>
   <si>
-    <t xml:space="preserve">unidentified </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venturiales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verrucariales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xylariales </t>
+    <t xml:space="preserve">Venturiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrucariales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylariales</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -794,19 +785,10 @@
       <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -833,52 +815,52 @@
         <v>4152</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P2" t="n">
-        <v>68</v>
+        <v>543</v>
       </c>
       <c r="Q2" t="n">
-        <v>543</v>
+        <v>182</v>
       </c>
       <c r="R2" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3967</v>
       </c>
       <c r="T2" t="n">
-        <v>3967</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W2" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -887,25 +869,25 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AC2" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>9090</v>
       </c>
       <c r="AH2" t="n">
-        <v>9090</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -914,66 +896,57 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>13865</v>
       </c>
       <c r="AX2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>12169</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1696</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -1000,79 +973,79 @@
         <v>4952</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="P3" t="n">
-        <v>123</v>
+        <v>784</v>
       </c>
       <c r="Q3" t="n">
-        <v>784</v>
+        <v>311</v>
       </c>
       <c r="R3" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5045</v>
       </c>
       <c r="T3" t="n">
-        <v>5045</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="AC3" t="n">
-        <v>376</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>8920</v>
       </c>
       <c r="AH3" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -1081,66 +1054,57 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AL3" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>1171</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1171</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AS3" t="n">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>10715</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>8857</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1858</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1167,46 +1131,46 @@
         <v>1451</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="P4" t="n">
-        <v>552</v>
+        <v>343</v>
       </c>
       <c r="Q4" t="n">
-        <v>343</v>
+        <v>653</v>
       </c>
       <c r="R4" t="n">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="T4" t="n">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1221,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="AC4" t="n">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1236,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>7306</v>
       </c>
       <c r="AH4" t="n">
-        <v>7306</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1248,66 +1212,57 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1741</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>9293</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" t="n">
-        <v>7726</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1567</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1334,147 +1289,138 @@
         <v>3709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="P5" t="n">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="Q5" t="n">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="R5" t="n">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
+        <v>6859</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>238</v>
+      </c>
+      <c r="AC5" t="n">
         <v>4</v>
       </c>
-      <c r="T5" t="n">
-        <v>6859</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9571</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>238</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>547</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>132</v>
+      </c>
+      <c r="AU5" t="n">
         <v>4</v>
       </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9571</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1690</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>547</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
       <c r="AV5" t="n">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>9798</v>
       </c>
       <c r="AX5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="n">
-        <v>7689</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2109</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -1501,52 +1447,52 @@
         <v>2303</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2671</v>
       </c>
       <c r="P6" t="n">
-        <v>2671</v>
+        <v>811</v>
       </c>
       <c r="Q6" t="n">
-        <v>811</v>
+        <v>79</v>
       </c>
       <c r="R6" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5562</v>
       </c>
       <c r="T6" t="n">
-        <v>5562</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="W6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1555,25 +1501,25 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="AC6" t="n">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>8394</v>
       </c>
       <c r="AH6" t="n">
-        <v>8394</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1582,66 +1528,57 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>564</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>12179</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>10758</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1421</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1668,52 +1605,52 @@
         <v>2162</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>114</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2202</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>90</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5191</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>114</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2202</v>
-      </c>
-      <c r="R7" t="n">
-        <v>90</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5191</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1722,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="AC7" t="n">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1737,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>8799</v>
       </c>
       <c r="AH7" t="n">
-        <v>8799</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1752,63 +1689,54 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2</v>
+        <v>1677</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
-        <v>1677</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1262</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>10573</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>8432</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2141</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1832,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1844,43 +1772,43 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
-        <v>53</v>
+        <v>965</v>
       </c>
       <c r="Q8" t="n">
-        <v>965</v>
+        <v>76</v>
       </c>
       <c r="R8" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>5336</v>
       </c>
       <c r="T8" t="n">
-        <v>5336</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="W8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1889,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="AC8" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1904,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>12930</v>
       </c>
       <c r="AH8" t="n">
-        <v>12930</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1916,66 +1844,57 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>7713</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>6184</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1529</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -2002,10 +1921,10 @@
         <v>2831</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2017,52 +1936,52 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="P9" t="n">
-        <v>184</v>
+        <v>1403</v>
       </c>
       <c r="Q9" t="n">
-        <v>1403</v>
+        <v>144</v>
       </c>
       <c r="R9" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3350</v>
       </c>
       <c r="T9" t="n">
-        <v>3350</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="AC9" t="n">
-        <v>958</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -2071,78 +1990,69 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12617</v>
       </c>
       <c r="AH9" t="n">
-        <v>12617</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>556</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>10296</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>7931</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2365</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC9" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -2169,52 +2079,52 @@
         <v>4210</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="P10" t="n">
-        <v>133</v>
+        <v>1489</v>
       </c>
       <c r="Q10" t="n">
-        <v>1489</v>
+        <v>87</v>
       </c>
       <c r="R10" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5989</v>
       </c>
       <c r="T10" t="n">
-        <v>5989</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -2223,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AC10" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -2235,81 +2145,72 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>9265</v>
       </c>
       <c r="AH10" t="n">
-        <v>9265</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>649</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>10563</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>7526</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3037</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2336,10 +2237,10 @@
         <v>8409</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2351,64 +2252,64 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P11" t="n">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="Q11" t="n">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="R11" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5783</v>
       </c>
       <c r="T11" t="n">
-        <v>5783</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AC11" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>5173</v>
       </c>
       <c r="AH11" t="n">
-        <v>5173</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -2417,66 +2318,57 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3337</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>1</v>
+        <v>9043</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>7712</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1331</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
         <v>326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" t="n">
         <v>26</v>
@@ -2503,147 +2395,138 @@
         <v>3197</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>86</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1812</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>226</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7465</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>710</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9580</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
         <v>4</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1812</v>
-      </c>
-      <c r="R12" t="n">
-        <v>226</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7465</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>710</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>616</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>454</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS12" t="n">
         <v>3</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9580</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>616</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>454</v>
-      </c>
       <c r="AT12" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>9084</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>6972</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2112</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2670,79 +2553,79 @@
         <v>3839</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>90</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>139</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6144</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>17</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>752</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1200</v>
-      </c>
-      <c r="R13" t="n">
-        <v>139</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6144</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>17</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>752</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
       <c r="AF13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>6897</v>
       </c>
       <c r="AH13" t="n">
-        <v>6897</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2751,66 +2634,57 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1021</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1342</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AU13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>1</v>
+        <v>11794</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>9788</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2006</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2846,138 +2720,129 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="P14" t="n">
-        <v>568</v>
+        <v>2158</v>
       </c>
       <c r="Q14" t="n">
-        <v>2158</v>
+        <v>123</v>
       </c>
       <c r="R14" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7565</v>
       </c>
       <c r="T14" t="n">
-        <v>7565</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>626</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5927</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>486</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>611</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
         <v>17</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>626</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5927</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>486</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>611</v>
-      </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>12131</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>9756</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2375</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -3004,147 +2869,138 @@
         <v>3531</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="P15" t="n">
-        <v>113</v>
+        <v>1597</v>
       </c>
       <c r="Q15" t="n">
-        <v>1597</v>
+        <v>199</v>
       </c>
       <c r="R15" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>5207</v>
       </c>
       <c r="T15" t="n">
-        <v>5207</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="W15" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>176</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10573</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>907</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>706</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
         <v>5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>176</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10573</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>907</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>706</v>
-      </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>10126</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
-        <v>7917</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2209</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -3171,147 +3027,138 @@
         <v>5639</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P16" t="n">
-        <v>144</v>
+        <v>823</v>
       </c>
       <c r="Q16" t="n">
-        <v>823</v>
+        <v>56</v>
       </c>
       <c r="R16" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4411</v>
       </c>
       <c r="T16" t="n">
-        <v>4411</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>322</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>3</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>322</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7895</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>3</v>
       </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7895</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
       <c r="AL16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>458</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AU16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>13110</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>11347</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1763</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3338,52 +3185,52 @@
         <v>4735</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="P17" t="n">
-        <v>126</v>
+        <v>1297</v>
       </c>
       <c r="Q17" t="n">
-        <v>1297</v>
+        <v>90</v>
       </c>
       <c r="R17" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7747</v>
       </c>
       <c r="T17" t="n">
-        <v>7747</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -3392,93 +3239,84 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10461</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>462</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>272</v>
       </c>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10461</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>462</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>7735</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2558</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3502,150 +3340,141 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1299</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5738</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1362</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10196</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>457</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2598</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1299</v>
-      </c>
-      <c r="R18" t="n">
-        <v>95</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>5738</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1362</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10196</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>457</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>2598</v>
-      </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>7478</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>5280</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2198</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3678,46 +3507,46 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
+        <v>65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>392</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>34</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6336</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11</v>
+      </c>
+      <c r="W19" t="n">
         <v>3</v>
       </c>
-      <c r="P19" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>392</v>
-      </c>
-      <c r="R19" t="n">
-        <v>34</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>6336</v>
-      </c>
-      <c r="U19" t="n">
-        <v>11</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>11</v>
-      </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -3726,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="AC19" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -3741,78 +3570,69 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>10295</v>
       </c>
       <c r="AH19" t="n">
-        <v>10295</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>964</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AV19" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>11724</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>10214</v>
+        <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1510</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -3851,67 +3671,67 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>388</v>
       </c>
       <c r="P20" t="n">
-        <v>388</v>
+        <v>4075</v>
       </c>
       <c r="Q20" t="n">
-        <v>4075</v>
+        <v>39</v>
       </c>
       <c r="R20" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5513</v>
       </c>
       <c r="T20" t="n">
-        <v>5513</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="AC20" t="n">
-        <v>1042</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>10518</v>
       </c>
       <c r="AH20" t="n">
-        <v>10518</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -3920,66 +3740,57 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1518</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1518</v>
+        <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>7490</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>5824</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1666</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -4006,147 +3817,138 @@
         <v>4794</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>42</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1002</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>443</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9011</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>225</v>
+      </c>
+      <c r="AC21" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1002</v>
-      </c>
-      <c r="R21" t="n">
-        <v>443</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>9011</v>
-      </c>
-      <c r="U21" t="n">
-        <v>14</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>5724</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>809</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>812</v>
+      </c>
+      <c r="AR21" t="n">
         <v>4</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>225</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>5724</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>809</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>812</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="AU21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>10227</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>8087</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2140</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -4173,79 +3975,79 @@
         <v>4434</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>260</v>
+      </c>
+      <c r="P22" t="n">
+        <v>888</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>189</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>7952</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>411</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
         <v>4</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>260</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>888</v>
-      </c>
-      <c r="R22" t="n">
-        <v>189</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7952</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>411</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>7956</v>
       </c>
       <c r="AH22" t="n">
-        <v>7956</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -4254,66 +4056,57 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL22" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>968</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>868</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>9010</v>
       </c>
       <c r="AX22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>6671</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2339</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -4340,10 +4133,10 @@
         <v>3559</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -4352,40 +4145,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="P23" t="n">
-        <v>73</v>
+        <v>596</v>
       </c>
       <c r="Q23" t="n">
-        <v>596</v>
+        <v>144</v>
       </c>
       <c r="R23" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6166</v>
       </c>
       <c r="T23" t="n">
-        <v>6166</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -4394,25 +4187,25 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>6319</v>
       </c>
       <c r="AH23" t="n">
-        <v>6319</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -4421,66 +4214,57 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AL23" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2964</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>11149</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>8783</v>
+        <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2366</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -4507,10 +4291,10 @@
         <v>6260</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -4522,37 +4306,37 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="P24" t="n">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="Q24" t="n">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="R24" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>7141</v>
       </c>
       <c r="T24" t="n">
-        <v>7141</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -4561,25 +4345,25 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AC24" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="AE24" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>7787</v>
       </c>
       <c r="AH24" t="n">
-        <v>7787</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -4588,66 +4372,57 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>10449</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>8935</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1514</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -4674,52 +4449,52 @@
         <v>1990</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="Q25" t="n">
-        <v>103</v>
+        <v>938</v>
       </c>
       <c r="R25" t="n">
-        <v>938</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8763</v>
       </c>
       <c r="T25" t="n">
-        <v>8763</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -4728,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AC25" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -4743,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>11895</v>
       </c>
       <c r="AH25" t="n">
-        <v>11895</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -4755,66 +4530,57 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>7752</v>
       </c>
       <c r="AX25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AY25" t="n">
-        <v>6873</v>
+        <v>0</v>
       </c>
       <c r="AZ25" t="n">
-        <v>879</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -4841,10 +4607,10 @@
         <v>2779</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4856,37 +4622,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P26" t="n">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="Q26" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R26" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3796</v>
       </c>
       <c r="T26" t="n">
-        <v>3796</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -4895,25 +4661,25 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="AE26" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="AH26" t="n">
-        <v>4478</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -4922,66 +4688,57 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AO26" t="n">
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>430</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AU26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>20784</v>
       </c>
       <c r="AX26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" t="n">
-        <v>19861</v>
+        <v>0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>923</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -5008,147 +4765,138 @@
         <v>2062</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>615</v>
+      </c>
+      <c r="P27" t="n">
+        <v>516</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>56</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9511</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>33</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>4400</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1644</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3931</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>246</v>
+      </c>
+      <c r="AS27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>615</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>516</v>
-      </c>
-      <c r="R27" t="n">
-        <v>56</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9511</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>33</v>
-      </c>
-      <c r="X27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>129</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>4400</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1644</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>3931</v>
-      </c>
       <c r="AT27" t="n">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>10146</v>
       </c>
       <c r="AX27" t="n">
         <v>0</v>
       </c>
       <c r="AY27" t="n">
-        <v>7895</v>
+        <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2251</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -5175,10 +4923,10 @@
         <v>5002</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -5190,132 +4938,123 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
-        <v>59</v>
+        <v>463</v>
       </c>
       <c r="Q28" t="n">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="R28" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9293</v>
       </c>
       <c r="T28" t="n">
-        <v>9293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>132</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7050</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>365</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1142</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
         <v>14</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>132</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7050</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>365</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>1142</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
       <c r="AU28" t="n">
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>9819</v>
       </c>
       <c r="AX28" t="n">
         <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1158</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -5351,40 +5090,40 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P29" t="n">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="Q29" t="n">
-        <v>465</v>
+        <v>36</v>
       </c>
       <c r="R29" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>14552</v>
       </c>
       <c r="T29" t="n">
-        <v>14552</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -5396,25 +5135,25 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AC29" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>6497</v>
       </c>
       <c r="AH29" t="n">
-        <v>6497</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -5423,66 +5162,57 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AO29" t="n">
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>578</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>7546</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" t="n">
-        <v>6309</v>
+        <v>0</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1237</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC29" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -5509,10 +5239,10 @@
         <v>5334</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -5524,37 +5254,37 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="P30" t="n">
-        <v>256</v>
+        <v>6998</v>
       </c>
       <c r="Q30" t="n">
-        <v>6998</v>
+        <v>39</v>
       </c>
       <c r="R30" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2618</v>
       </c>
       <c r="T30" t="n">
-        <v>2618</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -5563,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="AC30" t="n">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -5578,10 +5308,10 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>7685</v>
       </c>
       <c r="AH30" t="n">
-        <v>7685</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -5599,57 +5329,48 @@
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>882</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AU30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>8431</v>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
-        <v>5903</v>
+        <v>0</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2528</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5676,79 +5397,79 @@
         <v>3176</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="P31" t="n">
-        <v>114</v>
+        <v>608</v>
       </c>
       <c r="Q31" t="n">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="R31" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5533</v>
       </c>
       <c r="T31" t="n">
-        <v>5533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V31" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="Y31" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="AC31" t="n">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>6714</v>
       </c>
       <c r="AH31" t="n">
-        <v>6714</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -5757,66 +5478,57 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="AS31" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>0</v>
+        <v>14838</v>
       </c>
       <c r="AX31" t="n">
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>11438</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>3400</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5843,64 +5555,64 @@
         <v>4269</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P32" t="n">
-        <v>144</v>
+        <v>485</v>
       </c>
       <c r="Q32" t="n">
-        <v>485</v>
+        <v>361</v>
       </c>
       <c r="R32" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9863</v>
       </c>
       <c r="T32" t="n">
-        <v>9863</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="AC32" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -5912,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2747</v>
       </c>
       <c r="AH32" t="n">
-        <v>2747</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -5924,66 +5636,57 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>790</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AU32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>1</v>
+        <v>14164</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>10665</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>3499</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -6010,79 +5713,79 @@
         <v>6100</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>3</v>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>48</v>
+      </c>
+      <c r="P33" t="n">
+        <v>689</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>433</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5089</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
         <v>3</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>689</v>
-      </c>
-      <c r="R33" t="n">
-        <v>433</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>5089</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>258</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="n">
         <v>5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>258</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>2</v>
-      </c>
       <c r="AF33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>8920</v>
       </c>
       <c r="AH33" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -6091,66 +5794,57 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>850</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>787</v>
+      </c>
+      <c r="AR33" t="n">
         <v>4</v>
       </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>850</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
       <c r="AS33" t="n">
-        <v>787</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AU33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33" t="n">
-        <v>7009</v>
+        <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>3091</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -6177,52 +5871,52 @@
         <v>4781</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>6</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="P34" t="n">
-        <v>187</v>
+        <v>1556</v>
       </c>
       <c r="Q34" t="n">
-        <v>1556</v>
+        <v>343</v>
       </c>
       <c r="R34" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5104</v>
       </c>
       <c r="T34" t="n">
-        <v>5104</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -6231,93 +5925,84 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="AC34" t="n">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="AD34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>9656</v>
       </c>
       <c r="AH34" t="n">
-        <v>9656</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AL34" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>1</v>
+        <v>561</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>676</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>9793</v>
       </c>
       <c r="AX34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY34" t="n">
-        <v>7387</v>
+        <v>0</v>
       </c>
       <c r="AZ34" t="n">
-        <v>2406</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -6344,79 +6029,79 @@
         <v>3886</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P35" t="n">
-        <v>156</v>
+        <v>549</v>
       </c>
       <c r="Q35" t="n">
-        <v>549</v>
+        <v>138</v>
       </c>
       <c r="R35" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6742</v>
       </c>
       <c r="T35" t="n">
-        <v>6742</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="W35" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y35" t="n">
         <v>5</v>
       </c>
       <c r="Z35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AC35" t="n">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>4709</v>
       </c>
       <c r="AH35" t="n">
-        <v>4709</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
@@ -6425,66 +6110,57 @@
         <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1537</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1537</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>11297</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
-        <v>7669</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>3628</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -6526,132 +6202,123 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P36" t="n">
-        <v>56</v>
+        <v>732</v>
       </c>
       <c r="Q36" t="n">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="R36" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>17080</v>
       </c>
       <c r="T36" t="n">
-        <v>17080</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>84</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>3597</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>569</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>736</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
         <v>5</v>
       </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>84</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>3597</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>569</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>736</v>
-      </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>1</v>
+        <v>7551</v>
       </c>
       <c r="AX36" t="n">
         <v>0</v>
       </c>
       <c r="AY36" t="n">
-        <v>5444</v>
+        <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>2107</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -6678,52 +6345,52 @@
         <v>3273</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="P37" t="n">
-        <v>366</v>
+        <v>1093</v>
       </c>
       <c r="Q37" t="n">
-        <v>1093</v>
+        <v>103</v>
       </c>
       <c r="R37" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9702</v>
       </c>
       <c r="T37" t="n">
-        <v>9702</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -6732,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AC37" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -6747,78 +6414,69 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>7894</v>
       </c>
       <c r="AH37" t="n">
-        <v>7894</v>
+        <v>2</v>
       </c>
       <c r="AI37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="AO37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>785</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>0</v>
+        <v>8931</v>
       </c>
       <c r="AX37" t="n">
         <v>0</v>
       </c>
       <c r="AY37" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2936</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -6845,13 +6503,13 @@
         <v>1713</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -6860,132 +6518,123 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P38" t="n">
-        <v>104</v>
+        <v>1042</v>
       </c>
       <c r="Q38" t="n">
-        <v>1042</v>
+        <v>118</v>
       </c>
       <c r="R38" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>10486</v>
       </c>
       <c r="T38" t="n">
-        <v>10486</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>465</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>4728</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>669</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1918</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
         <v>3</v>
       </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>465</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>4728</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>669</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>1918</v>
-      </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
+        <v>12120</v>
       </c>
       <c r="AX38" t="n">
         <v>0</v>
       </c>
       <c r="AY38" t="n">
-        <v>7658</v>
+        <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>4462</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -7018,46 +6667,46 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="P39" t="n">
-        <v>169</v>
+        <v>529</v>
       </c>
       <c r="Q39" t="n">
-        <v>529</v>
+        <v>50</v>
       </c>
       <c r="R39" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>17305</v>
       </c>
       <c r="T39" t="n">
-        <v>17305</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="V39" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="W39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -7066,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AC39" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -7081,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2793</v>
       </c>
       <c r="AH39" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
@@ -7102,57 +6751,48 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1931</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>6494</v>
       </c>
       <c r="AX39" t="n">
         <v>0</v>
       </c>
       <c r="AY39" t="n">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1307</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -7191,55 +6831,55 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="P40" t="n">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="Q40" t="n">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="R40" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>13212</v>
       </c>
       <c r="T40" t="n">
-        <v>13212</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>3</v>
       </c>
       <c r="X40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="AC40" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="AD40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -7248,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>6259</v>
       </c>
       <c r="AH40" t="n">
-        <v>6259</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -7269,57 +6909,48 @@
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="AO40" t="n">
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS40" t="n">
-        <v>834</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AU40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>0</v>
+        <v>6785</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
       </c>
       <c r="AY40" t="n">
-        <v>5451</v>
+        <v>0</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1334</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC40" t="n">
         <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -7346,10 +6977,10 @@
         <v>2779</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -7358,40 +6989,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
-        <v>86</v>
+        <v>559</v>
       </c>
       <c r="Q41" t="n">
-        <v>559</v>
+        <v>44</v>
       </c>
       <c r="R41" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>14815</v>
       </c>
       <c r="T41" t="n">
-        <v>14815</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
         <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -7400,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="AC41" t="n">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -7415,16 +7046,16 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="AH41" t="n">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
@@ -7436,57 +7067,48 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>945</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AU41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>0</v>
+        <v>8066</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
       </c>
       <c r="AY41" t="n">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="AZ41" t="n">
-        <v>2449</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -7513,52 +7135,52 @@
         <v>2677</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6631</v>
+      </c>
+      <c r="P42" t="n">
+        <v>282</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>27</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10675</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>3</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>9</v>
-      </c>
-      <c r="P42" t="n">
-        <v>6631</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>282</v>
-      </c>
-      <c r="R42" t="n">
-        <v>27</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>10675</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
+        <v>13</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
         <v>3</v>
       </c>
-      <c r="W42" t="n">
-        <v>13</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1</v>
-      </c>
       <c r="Y42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -7567,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="AC42" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -7582,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>3086</v>
       </c>
       <c r="AH42" t="n">
-        <v>3086</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -7594,66 +7216,57 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" t="n">
         <v>1</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN42" t="n">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="AO42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1540</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>0</v>
+        <v>6674</v>
       </c>
       <c r="AX42" t="n">
         <v>0</v>
       </c>
       <c r="AY42" t="n">
-        <v>5450</v>
+        <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>1224</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -7680,10 +7293,10 @@
         <v>5267</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -7692,135 +7305,126 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>8</v>
+        <v>3387</v>
       </c>
       <c r="P43" t="n">
-        <v>3387</v>
+        <v>780</v>
       </c>
       <c r="Q43" t="n">
-        <v>780</v>
+        <v>10</v>
       </c>
       <c r="R43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7166</v>
       </c>
       <c r="T43" t="n">
-        <v>7166</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>580</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>3580</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>182</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3309</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>329</v>
+      </c>
+      <c r="AS43" t="n">
         <v>3</v>
       </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>580</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>3580</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>182</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>3309</v>
-      </c>
       <c r="AT43" t="n">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AU43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>0</v>
+        <v>8707</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
       </c>
       <c r="AY43" t="n">
-        <v>7265</v>
+        <v>0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1442</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -7856,132 +7460,123 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="P44" t="n">
-        <v>207</v>
+        <v>1041</v>
       </c>
       <c r="Q44" t="n">
-        <v>1041</v>
+        <v>24</v>
       </c>
       <c r="R44" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>14330</v>
       </c>
       <c r="T44" t="n">
-        <v>14330</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V44" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>662</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>3202</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>496</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>4226</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT44" t="n">
         <v>5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>662</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>3202</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>496</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>4226</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
       <c r="AU44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>0</v>
+        <v>6440</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
       </c>
       <c r="AY44" t="n">
-        <v>4475</v>
+        <v>0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1965</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
         <v>19</v>
       </c>
     </row>
